--- a/biology/Zoologie/Ariadna_javana/Ariadna_javana.xlsx
+++ b/biology/Zoologie/Ariadna_javana/Ariadna_javana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ariadna javana est une espèce d'araignées aranéomorphes de la famille des Segestriidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ariadna javana est une espèce d'araignées aranéomorphes de la famille des Segestriidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Java en Indonésie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Java en Indonésie.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce lui a été donné en référence au lieu de sa découverte, Java.
 </t>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Kulczyński, 1911 : Symbola ad faunam Aranearum Javae et Sumatrae cognoscendam. II. Sicariidae, Dysderidae, Drassodidae, Zodariidae. Bulletin International de l'Academie des Sciences de Cracovie. Classe des Sciences Mathematiques et Naturelles, vol. 1911, p. 451-496.</t>
         </is>
